--- a/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,63</t>
+          <t>0,23; 4,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,67</t>
+          <t>-1,74; 5,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,39; —</t>
+          <t>-33,94; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 608,97</t>
+          <t>-64,3; 920,63</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,89</t>
+          <t>-0,06; 1,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,54</t>
+          <t>1,55; 6,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,16; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,56; 1771,6</t>
+          <t>52,26; 1894,14</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,03</t>
+          <t>0,36; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,8</t>
+          <t>-2,3; 2,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 390,34</t>
+          <t>12,58; 381,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 100,62</t>
+          <t>-38,77; 98,75</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,18</t>
+          <t>2,4; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,93</t>
+          <t>0,97; 5,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,18; 333,42</t>
+          <t>58,32; 360,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 169,4</t>
+          <t>13,87; 166,92</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,17</t>
+          <t>4,41; 11,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,42</t>
+          <t>2,77; 8,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,83; 438,35</t>
+          <t>77,75; 435,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,24; 190,49</t>
+          <t>39,86; 199,49</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,03</t>
+          <t>6,72; 12,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,7</t>
+          <t>2,63; 7,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>198,32; 755,07</t>
+          <t>195,24; 798,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,58; 239,56</t>
+          <t>58,07; 255,2</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,74; 5,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,9</t>
+          <t>2,69; 5,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,65; 353,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,92; 146,23</t>
+          <t>58,27; 144,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,12</t>
+          <t>0,26; 4,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,94; —</t>
+          <t>-55,3; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,77</t>
+          <t>0,01; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; —</t>
+          <t>-66,62; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,95</t>
+          <t>0,67; 4,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 381,04</t>
+          <t>15,29; 416,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,27</t>
+          <t>2,52; 7,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,32; 360,82</t>
+          <t>53,52; 369,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,4</t>
+          <t>3,94; 11,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,75; 435,84</t>
+          <t>66,33; 431,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,11</t>
+          <t>6,51; 11,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>195,24; 798,07</t>
+          <t>182,89; 712,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,74</t>
+          <t>3,73; 5,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>158,65; 353,41</t>
+          <t>155,0; 336,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,05</t>
+          <t>0,23; 3,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,95</t>
+          <t>-2,02; 5,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,3; —</t>
+          <t>-32,39; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 920,63</t>
+          <t>-71,81; 608,97</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,97</t>
+          <t>-0,07; 1,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,38</t>
+          <t>1,5; 6,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,62; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,26; 1894,14</t>
+          <t>36,56; 1771,6</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,17</t>
+          <t>0,56; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,64</t>
+          <t>-1,86; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,29; 416,6</t>
+          <t>16,69; 390,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 98,75</t>
+          <t>-32,03; 100,62</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,55</t>
+          <t>2,19; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,94</t>
+          <t>1,06; 5,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,52; 369,14</t>
+          <t>49,18; 333,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 166,92</t>
+          <t>14,95; 169,4</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,17</t>
+          <t>4,27; 11,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,43</t>
+          <t>3,45; 8,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,33; 431,22</t>
+          <t>75,83; 438,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,86; 199,49</t>
+          <t>43,24; 190,49</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,84</t>
+          <t>6,65; 12,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,9</t>
+          <t>2,05; 7,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>182,89; 712,11</t>
+          <t>198,32; 755,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,07; 255,2</t>
+          <t>44,58; 239,56</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,73</t>
+          <t>3,79; 5,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,01</t>
+          <t>2,61; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>155,0; 336,82</t>
+          <t>164,33; 345,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,27; 144,3</t>
+          <t>56,92; 146,23</t>
         </is>
       </c>
     </row>
